--- a/Data/Results/Comp_Dictionary.xlsx
+++ b/Data/Results/Comp_Dictionary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Ticker</t>
   </si>
@@ -22,7 +22,16 @@
     <t>Category-Full</t>
   </si>
   <si>
-    <t>Category-2020</t>
+    <t>Category-3yr</t>
+  </si>
+  <si>
+    <t>Category-20</t>
+  </si>
+  <si>
+    <t>Category-19</t>
+  </si>
+  <si>
+    <t>Category-18</t>
   </si>
   <si>
     <t>ATEN</t>
@@ -827,13 +836,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,2091 +852,3441 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
       <c r="C9">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>13</v>
       </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
         <v>10</v>
       </c>
-      <c r="D22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
         <v>10</v>
       </c>
-      <c r="D26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D35">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D39">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>9</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D45">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C47">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>14</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D50">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>7</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>12</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D57">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>9</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>11</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58">
         <v>10</v>
       </c>
-      <c r="D58">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D59">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>9</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D60">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>14</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D62">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C64">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D64">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E64">
+        <v>6</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D66">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D67">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>9</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C68">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>9</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C70">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D70">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>12</v>
+      </c>
+      <c r="G71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C72">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D73">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E74">
+        <v>9</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E75">
+        <v>9</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C77">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D77">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E77">
+        <v>6</v>
+      </c>
+      <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C80">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <v>11</v>
+      </c>
+      <c r="G80">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C81">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D81">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>10</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C82">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>9</v>
+      </c>
+      <c r="E82">
         <v>13</v>
       </c>
-      <c r="D82">
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C83">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>13</v>
+      </c>
+      <c r="G83">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D84">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>9</v>
+      </c>
+      <c r="F84">
+        <v>4</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C85">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D85">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C86">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D86">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E86">
+        <v>10</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C87">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>13</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C90">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D90">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D91">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C92">
+        <v>12</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92">
         <v>13</v>
       </c>
-      <c r="D92">
+      <c r="F92">
+        <v>9</v>
+      </c>
+      <c r="G92">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
       <c r="D93">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E93">
+        <v>7</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+      <c r="G93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D94">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C95">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D95">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E95">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <v>7</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+      <c r="G96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C97">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D97">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>4</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C98">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D98">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>9</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D99">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+      <c r="G99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D100">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D101">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>12</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D102">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>12</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C103">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E103">
+        <v>9</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+      <c r="G103">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D104">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E104">
+        <v>12</v>
+      </c>
+      <c r="F104">
+        <v>14</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C107">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107">
+        <v>12</v>
+      </c>
+      <c r="F107">
+        <v>14</v>
+      </c>
+      <c r="G107">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C108">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C109">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D109">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="F109">
+        <v>4</v>
+      </c>
+      <c r="G109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C110">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E110">
+        <v>14</v>
+      </c>
+      <c r="F110">
+        <v>5</v>
+      </c>
+      <c r="G110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>12</v>
+      </c>
+      <c r="F111">
+        <v>14</v>
+      </c>
+      <c r="G111">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C112">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D112">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112">
+        <v>4</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C113">
+        <v>5</v>
+      </c>
+      <c r="D113">
+        <v>8</v>
+      </c>
+      <c r="E113">
+        <v>11</v>
+      </c>
+      <c r="F113">
+        <v>6</v>
+      </c>
+      <c r="G113">
         <v>10</v>
       </c>
-      <c r="D113">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C114">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D114">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C115">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C117">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C118">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C120">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D120">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C121">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D121">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>9</v>
+      </c>
+      <c r="F121">
+        <v>4</v>
+      </c>
+      <c r="G121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C122">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D122">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E122">
+        <v>10</v>
+      </c>
+      <c r="F122">
+        <v>3</v>
+      </c>
+      <c r="G122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C123">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E123">
+        <v>5</v>
+      </c>
+      <c r="F123">
+        <v>13</v>
+      </c>
+      <c r="G123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C124">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D124">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>10</v>
+      </c>
+      <c r="F124">
+        <v>3</v>
+      </c>
+      <c r="G124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C125">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="F125">
+        <v>13</v>
+      </c>
+      <c r="G125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C126">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126">
+        <v>4</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C127">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D127">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+      <c r="F127">
+        <v>4</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E128">
+        <v>7</v>
+      </c>
+      <c r="F128">
+        <v>11</v>
+      </c>
+      <c r="G128">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C129">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D129">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
+      </c>
+      <c r="F129">
+        <v>4</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C130">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D130">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
+      <c r="F130">
+        <v>12</v>
+      </c>
+      <c r="G130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C131">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D131">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E131">
+        <v>3</v>
+      </c>
+      <c r="F131">
+        <v>4</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D133">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>9</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C134">
+        <v>5</v>
+      </c>
+      <c r="D134">
+        <v>8</v>
+      </c>
+      <c r="E134">
+        <v>11</v>
+      </c>
+      <c r="F134">
+        <v>6</v>
+      </c>
+      <c r="G134">
         <v>10</v>
       </c>
-      <c r="D134">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C135">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D135">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>9</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C136">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136">
+        <v>3</v>
+      </c>
+      <c r="F136">
+        <v>4</v>
+      </c>
+      <c r="G136">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C137">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>4</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C138">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D138">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E138">
+        <v>14</v>
+      </c>
+      <c r="F138">
+        <v>5</v>
+      </c>
+      <c r="G138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
       <c r="D139">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E139">
+        <v>14</v>
+      </c>
+      <c r="F139">
+        <v>5</v>
+      </c>
+      <c r="G139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C140">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D140">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E140">
+        <v>6</v>
+      </c>
+      <c r="F140">
+        <v>7</v>
+      </c>
+      <c r="G140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C141">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D141">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E141">
+        <v>8</v>
+      </c>
+      <c r="F141">
+        <v>8</v>
+      </c>
+      <c r="G141">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C142">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D142">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E142">
+        <v>8</v>
+      </c>
+      <c r="F142">
+        <v>8</v>
+      </c>
+      <c r="G142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C143">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C144">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D144">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C145">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D145">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>9</v>
+      </c>
+      <c r="F145">
+        <v>4</v>
+      </c>
+      <c r="G145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C146">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="E146">
+        <v>3</v>
+      </c>
+      <c r="F146">
+        <v>4</v>
+      </c>
+      <c r="G146">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C147">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D147">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>12</v>
+      </c>
+      <c r="G147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C148">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="E148">
+        <v>12</v>
+      </c>
+      <c r="F148">
+        <v>14</v>
+      </c>
+      <c r="G148">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149">
         <v>6</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C150">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="E150">
+        <v>9</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Results/Comp_Dictionary.xlsx
+++ b/Data/Results/Comp_Dictionary.xlsx
@@ -34,451 +34,451 @@
     <t>Category-18</t>
   </si>
   <si>
-    <t>ATEN</t>
-  </si>
-  <si>
-    <t>ATVI</t>
-  </si>
-  <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>ABNB</t>
-  </si>
-  <si>
-    <t>AKAM</t>
-  </si>
-  <si>
-    <t>ATUS</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>AMC</t>
-  </si>
-  <si>
-    <t>AMCX</t>
-  </si>
-  <si>
-    <t>ANGI</t>
-  </si>
-  <si>
-    <t>APPF</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>AMAT</t>
-  </si>
-  <si>
-    <t>ADSK</t>
-  </si>
-  <si>
-    <t>BBY</t>
-  </si>
-  <si>
-    <t>BKI</t>
-  </si>
-  <si>
-    <t>BKNG</t>
-  </si>
-  <si>
-    <t>BSX</t>
-  </si>
-  <si>
-    <t>CHTR</t>
-  </si>
-  <si>
-    <t>DLR</t>
-  </si>
-  <si>
-    <t>DISH</t>
-  </si>
-  <si>
-    <t>EA</t>
-  </si>
-  <si>
-    <t>EFX</t>
-  </si>
-  <si>
-    <t>EQIX</t>
-  </si>
-  <si>
-    <t>EXPE</t>
-  </si>
-  <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>FIS</t>
-  </si>
-  <si>
-    <t>FIVN</t>
-  </si>
-  <si>
-    <t>FLT</t>
-  </si>
-  <si>
-    <t>FOX</t>
-  </si>
-  <si>
-    <t>GME</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>HPQ</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>INTU</t>
-  </si>
-  <si>
-    <t>LRCX</t>
-  </si>
-  <si>
-    <t>LYV</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>MDB</t>
-  </si>
-  <si>
-    <t>MSI</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>OMC</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>PAYC</t>
-  </si>
-  <si>
-    <t>PYPL</t>
-  </si>
-  <si>
-    <t>QRVO</t>
-  </si>
-  <si>
-    <t>QCOM</t>
-  </si>
-  <si>
-    <t>QUOT</t>
-  </si>
-  <si>
-    <t>SABR</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>SBAC</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>SQ</t>
-  </si>
-  <si>
-    <t>SSNC</t>
-  </si>
-  <si>
-    <t>STMP</t>
-  </si>
-  <si>
-    <t>SNPS</t>
-  </si>
-  <si>
-    <t>TTWO</t>
-  </si>
-  <si>
-    <t>TXN</t>
-  </si>
-  <si>
-    <t>TMUS</t>
-  </si>
-  <si>
-    <t>TWLO</t>
-  </si>
-  <si>
-    <t>TWTR</t>
-  </si>
-  <si>
-    <t>UPLD</t>
-  </si>
-  <si>
-    <t>VRSN</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>VIAC</t>
-  </si>
-  <si>
-    <t>WDAY</t>
-  </si>
-  <si>
-    <t>ZEN</t>
-  </si>
-  <si>
-    <t>ZUO</t>
-  </si>
-  <si>
-    <t>KN</t>
-  </si>
-  <si>
-    <t>ZNGA</t>
-  </si>
-  <si>
-    <t>EMR</t>
-  </si>
-  <si>
-    <t>ARLO</t>
-  </si>
-  <si>
-    <t>CHGG</t>
-  </si>
-  <si>
-    <t>DIS</t>
-  </si>
-  <si>
-    <t>IAC</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>ZM</t>
-  </si>
-  <si>
-    <t>SIRI</t>
-  </si>
-  <si>
-    <t>SBGI</t>
-  </si>
-  <si>
-    <t>IHRT</t>
-  </si>
-  <si>
-    <t>SONO</t>
-  </si>
-  <si>
-    <t>IRBT</t>
-  </si>
-  <si>
-    <t>ROKU</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>MTCH</t>
-  </si>
-  <si>
-    <t>IPG</t>
-  </si>
-  <si>
-    <t>WU</t>
-  </si>
-  <si>
-    <t>CMCSA</t>
-  </si>
-  <si>
-    <t>SFIX</t>
-  </si>
-  <si>
-    <t>CHWY</t>
-  </si>
-  <si>
-    <t>RNG</t>
-  </si>
-  <si>
-    <t>ETSY</t>
-  </si>
-  <si>
-    <t>PRTS</t>
-  </si>
-  <si>
-    <t>DASH</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>LYFT</t>
-  </si>
-  <si>
-    <t>PRPL</t>
-  </si>
-  <si>
-    <t>LOVE</t>
-  </si>
-  <si>
-    <t>KMX</t>
-  </si>
-  <si>
-    <t>ODP</t>
-  </si>
-  <si>
-    <t>NYT</t>
-  </si>
-  <si>
-    <t>RKT</t>
-  </si>
-  <si>
-    <t>WKHS</t>
-  </si>
-  <si>
-    <t>DKNG</t>
-  </si>
-  <si>
-    <t>AMT</t>
-  </si>
-  <si>
-    <t>LUMN</t>
-  </si>
-  <si>
-    <t>FYBR</t>
-  </si>
-  <si>
-    <t>CRSR</t>
-  </si>
-  <si>
-    <t>CCOI</t>
-  </si>
-  <si>
-    <t>CNSL</t>
-  </si>
-  <si>
-    <t>CALX</t>
-  </si>
-  <si>
-    <t>IDT</t>
-  </si>
-  <si>
-    <t>SSTK</t>
-  </si>
-  <si>
-    <t>SSP</t>
-  </si>
-  <si>
-    <t>CMLS</t>
-  </si>
-  <si>
-    <t>NWSA</t>
-  </si>
-  <si>
-    <t>TSQ</t>
-  </si>
-  <si>
-    <t>SGA</t>
-  </si>
-  <si>
-    <t>YELP</t>
-  </si>
-  <si>
-    <t>TWOU</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>GRPN</t>
-  </si>
-  <si>
-    <t>DBX</t>
-  </si>
-  <si>
-    <t>PCTY</t>
-  </si>
-  <si>
-    <t>BOX</t>
-  </si>
-  <si>
-    <t>CONE</t>
-  </si>
-  <si>
-    <t>COR</t>
-  </si>
-  <si>
-    <t>TREE</t>
-  </si>
-  <si>
-    <t>LC</t>
-  </si>
-  <si>
-    <t>ENV</t>
-  </si>
-  <si>
-    <t>FISV</t>
-  </si>
-  <si>
-    <t>SGMS</t>
-  </si>
-  <si>
-    <t>TDS</t>
-  </si>
-  <si>
-    <t>USM</t>
-  </si>
-  <si>
-    <t>SHEN</t>
-  </si>
-  <si>
-    <t>MSTR</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>OSTK</t>
-  </si>
-  <si>
-    <t>MELI</t>
-  </si>
-  <si>
-    <t>CVNA</t>
-  </si>
-  <si>
-    <t>MVIS</t>
-  </si>
-  <si>
-    <t>SPSC</t>
+    <t>ATEN_2014</t>
+  </si>
+  <si>
+    <t>ATEN_2015</t>
+  </si>
+  <si>
+    <t>ATEN_2016</t>
+  </si>
+  <si>
+    <t>ATEN_2017</t>
+  </si>
+  <si>
+    <t>ATEN_2018</t>
+  </si>
+  <si>
+    <t>ATEN_2019</t>
+  </si>
+  <si>
+    <t>ATEN_2020</t>
+  </si>
+  <si>
+    <t>ATVI_2011</t>
+  </si>
+  <si>
+    <t>ATVI_2012</t>
+  </si>
+  <si>
+    <t>ATVI_2013</t>
+  </si>
+  <si>
+    <t>ATVI_2014</t>
+  </si>
+  <si>
+    <t>ATVI_2015</t>
+  </si>
+  <si>
+    <t>ATVI_2016</t>
+  </si>
+  <si>
+    <t>ATVI_2017</t>
+  </si>
+  <si>
+    <t>ATVI_2018</t>
+  </si>
+  <si>
+    <t>ATVI_2019</t>
+  </si>
+  <si>
+    <t>ATVI_2020</t>
+  </si>
+  <si>
+    <t>ADBE_2011</t>
+  </si>
+  <si>
+    <t>ADBE_2012</t>
+  </si>
+  <si>
+    <t>ADBE_2013</t>
+  </si>
+  <si>
+    <t>ADBE_2014</t>
+  </si>
+  <si>
+    <t>ADBE_2015</t>
+  </si>
+  <si>
+    <t>ADBE_2016</t>
+  </si>
+  <si>
+    <t>ADBE_2017</t>
+  </si>
+  <si>
+    <t>ADBE_2018</t>
+  </si>
+  <si>
+    <t>ADBE_2019</t>
+  </si>
+  <si>
+    <t>ADBE_2020</t>
+  </si>
+  <si>
+    <t>AMD_2011</t>
+  </si>
+  <si>
+    <t>AMD_2012</t>
+  </si>
+  <si>
+    <t>AMD_2013</t>
+  </si>
+  <si>
+    <t>AMD_2014</t>
+  </si>
+  <si>
+    <t>AMD_2015</t>
+  </si>
+  <si>
+    <t>AMD_2016</t>
+  </si>
+  <si>
+    <t>AMD_2017</t>
+  </si>
+  <si>
+    <t>AMD_2018</t>
+  </si>
+  <si>
+    <t>AMD_2019</t>
+  </si>
+  <si>
+    <t>AMD_2020</t>
+  </si>
+  <si>
+    <t>ABNB_2020</t>
+  </si>
+  <si>
+    <t>AKAM_2011</t>
+  </si>
+  <si>
+    <t>AKAM_2012</t>
+  </si>
+  <si>
+    <t>AKAM_2013</t>
+  </si>
+  <si>
+    <t>AKAM_2014</t>
+  </si>
+  <si>
+    <t>AKAM_2015</t>
+  </si>
+  <si>
+    <t>AKAM_2016</t>
+  </si>
+  <si>
+    <t>AKAM_2017</t>
+  </si>
+  <si>
+    <t>AKAM_2018</t>
+  </si>
+  <si>
+    <t>AKAM_2019</t>
+  </si>
+  <si>
+    <t>AKAM_2020</t>
+  </si>
+  <si>
+    <t>ATUS_2017</t>
+  </si>
+  <si>
+    <t>ATUS_2018</t>
+  </si>
+  <si>
+    <t>ATUS_2019</t>
+  </si>
+  <si>
+    <t>ATUS_2020</t>
+  </si>
+  <si>
+    <t>AMZN_2011</t>
+  </si>
+  <si>
+    <t>AMZN_2012</t>
+  </si>
+  <si>
+    <t>AMZN_2013</t>
+  </si>
+  <si>
+    <t>AMZN_2014</t>
+  </si>
+  <si>
+    <t>AMZN_2015</t>
+  </si>
+  <si>
+    <t>AMZN_2016</t>
+  </si>
+  <si>
+    <t>AMZN_2017</t>
+  </si>
+  <si>
+    <t>AMZN_2018</t>
+  </si>
+  <si>
+    <t>AMZN_2019</t>
+  </si>
+  <si>
+    <t>AMZN_2020</t>
+  </si>
+  <si>
+    <t>AMC_2013</t>
+  </si>
+  <si>
+    <t>AMC_2014</t>
+  </si>
+  <si>
+    <t>AMC_2015</t>
+  </si>
+  <si>
+    <t>AMC_2016</t>
+  </si>
+  <si>
+    <t>AMC_2017</t>
+  </si>
+  <si>
+    <t>AMC_2018</t>
+  </si>
+  <si>
+    <t>AMC_2019</t>
+  </si>
+  <si>
+    <t>AMC_2020</t>
+  </si>
+  <si>
+    <t>AMCX_2012</t>
+  </si>
+  <si>
+    <t>AMCX_2013</t>
+  </si>
+  <si>
+    <t>AMCX_2014</t>
+  </si>
+  <si>
+    <t>AMCX_2015</t>
+  </si>
+  <si>
+    <t>AMCX_2016</t>
+  </si>
+  <si>
+    <t>AMCX_2017</t>
+  </si>
+  <si>
+    <t>AMCX_2018</t>
+  </si>
+  <si>
+    <t>AMCX_2019</t>
+  </si>
+  <si>
+    <t>AMCX_2020</t>
+  </si>
+  <si>
+    <t>ANGI_2017</t>
+  </si>
+  <si>
+    <t>ANGI_2018</t>
+  </si>
+  <si>
+    <t>ANGI_2019</t>
+  </si>
+  <si>
+    <t>ANGI_2020</t>
+  </si>
+  <si>
+    <t>APPF_2015</t>
+  </si>
+  <si>
+    <t>APPF_2016</t>
+  </si>
+  <si>
+    <t>APPF_2017</t>
+  </si>
+  <si>
+    <t>APPF_2018</t>
+  </si>
+  <si>
+    <t>APPF_2019</t>
+  </si>
+  <si>
+    <t>APPF_2020</t>
+  </si>
+  <si>
+    <t>AAPL_2011</t>
+  </si>
+  <si>
+    <t>AAPL_2012</t>
+  </si>
+  <si>
+    <t>AAPL_2013</t>
+  </si>
+  <si>
+    <t>AAPL_2014</t>
+  </si>
+  <si>
+    <t>AAPL_2015</t>
+  </si>
+  <si>
+    <t>AAPL_2016</t>
+  </si>
+  <si>
+    <t>AAPL_2017</t>
+  </si>
+  <si>
+    <t>AAPL_2018</t>
+  </si>
+  <si>
+    <t>AAPL_2019</t>
+  </si>
+  <si>
+    <t>AAPL_2020</t>
+  </si>
+  <si>
+    <t>AMAT_2012</t>
+  </si>
+  <si>
+    <t>AMAT_2013</t>
+  </si>
+  <si>
+    <t>AMAT_2014</t>
+  </si>
+  <si>
+    <t>AMAT_2015</t>
+  </si>
+  <si>
+    <t>AMAT_2016</t>
+  </si>
+  <si>
+    <t>AMAT_2017</t>
+  </si>
+  <si>
+    <t>AMAT_2018</t>
+  </si>
+  <si>
+    <t>AMAT_2019</t>
+  </si>
+  <si>
+    <t>AMAT_2020</t>
+  </si>
+  <si>
+    <t>ADSK_2011</t>
+  </si>
+  <si>
+    <t>ADSK_2012</t>
+  </si>
+  <si>
+    <t>ADSK_2013</t>
+  </si>
+  <si>
+    <t>ADSK_2014</t>
+  </si>
+  <si>
+    <t>ADSK_2015</t>
+  </si>
+  <si>
+    <t>ADSK_2016</t>
+  </si>
+  <si>
+    <t>ADSK_2017</t>
+  </si>
+  <si>
+    <t>ADSK_2018</t>
+  </si>
+  <si>
+    <t>ADSK_2019</t>
+  </si>
+  <si>
+    <t>ADSK_2020</t>
+  </si>
+  <si>
+    <t>BBY_2011</t>
+  </si>
+  <si>
+    <t>BBY_2012</t>
+  </si>
+  <si>
+    <t>BBY_2013</t>
+  </si>
+  <si>
+    <t>BBY_2014</t>
+  </si>
+  <si>
+    <t>BBY_2015</t>
+  </si>
+  <si>
+    <t>BBY_2016</t>
+  </si>
+  <si>
+    <t>BBY_2017</t>
+  </si>
+  <si>
+    <t>BBY_2018</t>
+  </si>
+  <si>
+    <t>BBY_2019</t>
+  </si>
+  <si>
+    <t>BBY_2020</t>
+  </si>
+  <si>
+    <t>BKI_2015</t>
+  </si>
+  <si>
+    <t>BKI_2016</t>
+  </si>
+  <si>
+    <t>BKI_2017</t>
+  </si>
+  <si>
+    <t>BKI_2018</t>
+  </si>
+  <si>
+    <t>BKI_2019</t>
+  </si>
+  <si>
+    <t>BKI_2020</t>
+  </si>
+  <si>
+    <t>BKNG_2011</t>
+  </si>
+  <si>
+    <t>BKNG_2012</t>
+  </si>
+  <si>
+    <t>BKNG_2013</t>
+  </si>
+  <si>
+    <t>BKNG_2014</t>
+  </si>
+  <si>
+    <t>BKNG_2015</t>
+  </si>
+  <si>
+    <t>BKNG_2016</t>
+  </si>
+  <si>
+    <t>BKNG_2017</t>
+  </si>
+  <si>
+    <t>BKNG_2018</t>
+  </si>
+  <si>
+    <t>BKNG_2019</t>
+  </si>
+  <si>
+    <t>BKNG_2020</t>
+  </si>
+  <si>
+    <t>BSX_2011</t>
+  </si>
+  <si>
+    <t>BSX_2012</t>
+  </si>
+  <si>
+    <t>BSX_2013</t>
+  </si>
+  <si>
+    <t>BSX_2014</t>
+  </si>
+  <si>
+    <t>BSX_2015</t>
   </si>
 </sst>
 </file>
@@ -870,19 +870,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -893,19 +893,19 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
         <v>14</v>
       </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
       <c r="F3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -916,19 +916,19 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -942,16 +942,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -962,19 +962,19 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -985,19 +985,19 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1008,19 +1008,19 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1034,16 +1034,16 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1054,19 +1054,19 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1077,19 +1077,19 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1100,16 +1100,16 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -1123,19 +1123,19 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1149,16 +1149,16 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1172,16 +1172,16 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1192,19 +1192,19 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1215,19 +1215,19 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1238,19 +1238,19 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1261,19 +1261,19 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1307,19 +1307,19 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1330,19 +1330,19 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1353,19 +1353,19 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1376,19 +1376,19 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24">
         <v>14</v>
       </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
       <c r="F24">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1399,19 +1399,19 @@
         <v>29</v>
       </c>
       <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
         <v>14</v>
       </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
       <c r="E25">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1422,19 +1422,19 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1445,19 +1445,19 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1468,19 +1468,19 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1491,19 +1491,19 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1514,19 +1514,19 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1537,19 +1537,19 @@
         <v>35</v>
       </c>
       <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
         <v>10</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1560,19 +1560,19 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1583,19 +1583,19 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F33">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1606,19 +1606,19 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1629,19 +1629,19 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E35">
         <v>2</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1655,16 +1655,16 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1675,19 +1675,19 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1701,16 +1701,16 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1721,19 +1721,19 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1747,16 +1747,16 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E40">
         <v>2</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1767,19 +1767,19 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G41">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1793,16 +1793,16 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1813,19 +1813,19 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1836,19 +1836,19 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1859,19 +1859,19 @@
         <v>49</v>
       </c>
       <c r="C45">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1882,19 +1882,19 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E46">
         <v>2</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1905,19 +1905,19 @@
         <v>51</v>
       </c>
       <c r="C47">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1931,16 +1931,16 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1951,19 +1951,19 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1974,19 +1974,19 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1997,19 +1997,19 @@
         <v>55</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2020,19 +2020,19 @@
         <v>56</v>
       </c>
       <c r="C52">
+        <v>14</v>
+      </c>
+      <c r="D52">
+        <v>14</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52">
         <v>10</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>12</v>
-      </c>
-      <c r="G52">
-        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2046,16 +2046,16 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E53">
         <v>2</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2069,16 +2069,16 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E54">
         <v>2</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2089,19 +2089,19 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2112,19 +2112,19 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D56">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F56">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G56">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2135,19 +2135,19 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2158,19 +2158,19 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D58">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G58">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2181,19 +2181,19 @@
         <v>63</v>
       </c>
       <c r="C59">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2204,19 +2204,19 @@
         <v>64</v>
       </c>
       <c r="C60">
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <v>14</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60">
         <v>10</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>4</v>
-      </c>
-      <c r="G60">
-        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2227,19 +2227,19 @@
         <v>65</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2250,19 +2250,19 @@
         <v>66</v>
       </c>
       <c r="C62">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2276,16 +2276,16 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E63">
         <v>2</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2296,19 +2296,19 @@
         <v>68</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D64">
+        <v>11</v>
+      </c>
+      <c r="E64">
         <v>14</v>
       </c>
-      <c r="E64">
-        <v>6</v>
-      </c>
       <c r="F64">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2322,16 +2322,16 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E65">
         <v>2</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2342,19 +2342,19 @@
         <v>70</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D66">
+        <v>12</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="G66">
         <v>13</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2365,19 +2365,19 @@
         <v>71</v>
       </c>
       <c r="C67">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <v>1</v>
       </c>
       <c r="G67">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2388,19 +2388,19 @@
         <v>72</v>
       </c>
       <c r="C68">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F68">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2411,19 +2411,19 @@
         <v>73</v>
       </c>
       <c r="C69">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2434,19 +2434,19 @@
         <v>74</v>
       </c>
       <c r="C70">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2457,19 +2457,19 @@
         <v>75</v>
       </c>
       <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>14</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71">
         <v>10</v>
-      </c>
-      <c r="D71">
-        <v>5</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>12</v>
-      </c>
-      <c r="G71">
-        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2480,19 +2480,19 @@
         <v>76</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D72">
         <v>4</v>
       </c>
       <c r="E72">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2503,19 +2503,19 @@
         <v>77</v>
       </c>
       <c r="C73">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2526,19 +2526,19 @@
         <v>78</v>
       </c>
       <c r="C74">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D74">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E74">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2549,19 +2549,19 @@
         <v>79</v>
       </c>
       <c r="C75">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D75">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E75">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2575,16 +2575,16 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E76">
         <v>2</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2595,19 +2595,19 @@
         <v>81</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D77">
+        <v>11</v>
+      </c>
+      <c r="E77">
         <v>14</v>
       </c>
-      <c r="E77">
-        <v>6</v>
-      </c>
       <c r="F77">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2621,16 +2621,16 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E78">
         <v>2</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2644,16 +2644,16 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E79">
         <v>2</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2664,19 +2664,19 @@
         <v>84</v>
       </c>
       <c r="C80">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F80">
+        <v>8</v>
+      </c>
+      <c r="G80">
         <v>11</v>
-      </c>
-      <c r="G80">
-        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2687,19 +2687,19 @@
         <v>85</v>
       </c>
       <c r="C81">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E81">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F81">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2710,16 +2710,16 @@
         <v>86</v>
       </c>
       <c r="C82">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G82">
         <v>8</v>
@@ -2733,19 +2733,19 @@
         <v>87</v>
       </c>
       <c r="C83">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E83">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F83">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G83">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2756,19 +2756,19 @@
         <v>88</v>
       </c>
       <c r="C84">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2779,19 +2779,19 @@
         <v>89</v>
       </c>
       <c r="C85">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F85">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2808,13 +2808,13 @@
         <v>4</v>
       </c>
       <c r="E86">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2825,19 +2825,19 @@
         <v>91</v>
       </c>
       <c r="C87">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E87">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F87">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2851,16 +2851,16 @@
         <v>1</v>
       </c>
       <c r="D88">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E88">
         <v>2</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2874,16 +2874,16 @@
         <v>1</v>
       </c>
       <c r="D89">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E89">
         <v>2</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2894,19 +2894,19 @@
         <v>94</v>
       </c>
       <c r="C90">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2917,19 +2917,19 @@
         <v>95</v>
       </c>
       <c r="C91">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F91">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G91">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2940,16 +2940,16 @@
         <v>96</v>
       </c>
       <c r="C92">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G92">
         <v>8</v>
@@ -2963,19 +2963,19 @@
         <v>97</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E93">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2986,19 +2986,19 @@
         <v>98</v>
       </c>
       <c r="C94">
+        <v>14</v>
+      </c>
+      <c r="D94">
+        <v>14</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <v>6</v>
+      </c>
+      <c r="G94">
         <v>10</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3009,19 +3009,19 @@
         <v>99</v>
       </c>
       <c r="C95">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D95">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E95">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F95">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3032,19 +3032,19 @@
         <v>100</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E96">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3055,19 +3055,19 @@
         <v>101</v>
       </c>
       <c r="C97">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F97">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3078,19 +3078,19 @@
         <v>102</v>
       </c>
       <c r="C98">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E98">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F98">
         <v>1</v>
       </c>
       <c r="G98">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3101,19 +3101,19 @@
         <v>103</v>
       </c>
       <c r="C99">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F99">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G99">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3124,19 +3124,19 @@
         <v>104</v>
       </c>
       <c r="C100">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E100">
         <v>2</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3147,19 +3147,19 @@
         <v>105</v>
       </c>
       <c r="C101">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F101">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3170,19 +3170,19 @@
         <v>106</v>
       </c>
       <c r="C102">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F102">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3193,19 +3193,19 @@
         <v>107</v>
       </c>
       <c r="C103">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D103">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E103">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3216,19 +3216,19 @@
         <v>108</v>
       </c>
       <c r="C104">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F104">
         <v>14</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3242,16 +3242,16 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E105">
         <v>2</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3265,16 +3265,16 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E106">
         <v>2</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3285,19 +3285,19 @@
         <v>111</v>
       </c>
       <c r="C107">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E107">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F107">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G107">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3308,19 +3308,19 @@
         <v>112</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F108">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3331,19 +3331,19 @@
         <v>113</v>
       </c>
       <c r="C109">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F109">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G109">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3354,19 +3354,19 @@
         <v>114</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D110">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E110">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F110">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3377,19 +3377,19 @@
         <v>115</v>
       </c>
       <c r="C111">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E111">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F111">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G111">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3400,19 +3400,19 @@
         <v>116</v>
       </c>
       <c r="C112">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F112">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3423,19 +3423,19 @@
         <v>117</v>
       </c>
       <c r="C113">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D113">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F113">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G113">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3446,19 +3446,19 @@
         <v>118</v>
       </c>
       <c r="C114">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G114">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3469,19 +3469,19 @@
         <v>119</v>
       </c>
       <c r="C115">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D115">
         <v>7</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G115">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3495,16 +3495,16 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E116">
         <v>2</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3515,19 +3515,19 @@
         <v>121</v>
       </c>
       <c r="C117">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D117">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G117">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3538,19 +3538,19 @@
         <v>122</v>
       </c>
       <c r="C118">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D118">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G118">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3564,16 +3564,16 @@
         <v>1</v>
       </c>
       <c r="D119">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E119">
         <v>2</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3584,19 +3584,19 @@
         <v>124</v>
       </c>
       <c r="C120">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G120">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3607,19 +3607,19 @@
         <v>125</v>
       </c>
       <c r="C121">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D121">
         <v>1</v>
       </c>
       <c r="E121">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G121">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3636,13 +3636,13 @@
         <v>4</v>
       </c>
       <c r="E122">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F122">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3653,19 +3653,19 @@
         <v>127</v>
       </c>
       <c r="C123">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E123">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F123">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3676,19 +3676,19 @@
         <v>128</v>
       </c>
       <c r="C124">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F124">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3699,19 +3699,19 @@
         <v>129</v>
       </c>
       <c r="C125">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E125">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F125">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3722,19 +3722,19 @@
         <v>130</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E126">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F126">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G126">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3745,19 +3745,19 @@
         <v>131</v>
       </c>
       <c r="C127">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F127">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3768,19 +3768,19 @@
         <v>132</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D128">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E128">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
         <v>11</v>
-      </c>
-      <c r="G128">
-        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3791,19 +3791,19 @@
         <v>133</v>
       </c>
       <c r="C129">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F129">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3814,19 +3814,19 @@
         <v>134</v>
       </c>
       <c r="C130">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F130">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G130">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3837,19 +3837,19 @@
         <v>135</v>
       </c>
       <c r="C131">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F131">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3860,19 +3860,19 @@
         <v>136</v>
       </c>
       <c r="C132">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G132">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3883,19 +3883,19 @@
         <v>137</v>
       </c>
       <c r="C133">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E133">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F133">
         <v>1</v>
       </c>
       <c r="G133">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3906,19 +3906,19 @@
         <v>138</v>
       </c>
       <c r="C134">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D134">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E134">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F134">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G134">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3929,19 +3929,19 @@
         <v>139</v>
       </c>
       <c r="C135">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D135">
         <v>2</v>
       </c>
       <c r="E135">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G135">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3952,19 +3952,19 @@
         <v>140</v>
       </c>
       <c r="C136">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F136">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G136">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3975,19 +3975,19 @@
         <v>141</v>
       </c>
       <c r="C137">
+        <v>14</v>
+      </c>
+      <c r="D137">
+        <v>6</v>
+      </c>
+      <c r="E137">
+        <v>4</v>
+      </c>
+      <c r="F137">
+        <v>6</v>
+      </c>
+      <c r="G137">
         <v>10</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-      <c r="E137">
-        <v>1</v>
-      </c>
-      <c r="F137">
-        <v>4</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3998,19 +3998,19 @@
         <v>142</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D138">
         <v>5</v>
       </c>
       <c r="E138">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F138">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G138">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4021,19 +4021,19 @@
         <v>143</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D139">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E139">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F139">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4044,19 +4044,19 @@
         <v>144</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D140">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E140">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F140">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G140">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4067,19 +4067,19 @@
         <v>145</v>
       </c>
       <c r="C141">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D141">
+        <v>12</v>
+      </c>
+      <c r="E141">
+        <v>10</v>
+      </c>
+      <c r="F141">
         <v>13</v>
       </c>
-      <c r="E141">
-        <v>8</v>
-      </c>
-      <c r="F141">
-        <v>8</v>
-      </c>
       <c r="G141">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4090,19 +4090,19 @@
         <v>146</v>
       </c>
       <c r="C142">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D142">
+        <v>12</v>
+      </c>
+      <c r="E142">
+        <v>10</v>
+      </c>
+      <c r="F142">
         <v>13</v>
       </c>
-      <c r="E142">
-        <v>8</v>
-      </c>
-      <c r="F142">
-        <v>8</v>
-      </c>
       <c r="G142">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4113,19 +4113,19 @@
         <v>147</v>
       </c>
       <c r="C143">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D143">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G143">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4136,19 +4136,19 @@
         <v>148</v>
       </c>
       <c r="C144">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F144">
         <v>1</v>
       </c>
       <c r="G144">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4159,19 +4159,19 @@
         <v>149</v>
       </c>
       <c r="C145">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E145">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F145">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G145">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4182,19 +4182,19 @@
         <v>150</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F146">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G146">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4205,19 +4205,19 @@
         <v>151</v>
       </c>
       <c r="C147">
+        <v>14</v>
+      </c>
+      <c r="D147">
+        <v>14</v>
+      </c>
+      <c r="E147">
+        <v>4</v>
+      </c>
+      <c r="F147">
+        <v>6</v>
+      </c>
+      <c r="G147">
         <v>10</v>
-      </c>
-      <c r="D147">
-        <v>1</v>
-      </c>
-      <c r="E147">
-        <v>1</v>
-      </c>
-      <c r="F147">
-        <v>12</v>
-      </c>
-      <c r="G147">
-        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4228,19 +4228,19 @@
         <v>152</v>
       </c>
       <c r="C148">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F148">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G148">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4254,16 +4254,16 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E149">
         <v>2</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4274,19 +4274,19 @@
         <v>154</v>
       </c>
       <c r="C150">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D150">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E150">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F150">
         <v>1</v>
       </c>
       <c r="G150">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
